--- a/results_curr/DT/75Hz_3classes/res_hyperopt.xlsx
+++ b/results_curr/DT/75Hz_3classes/res_hyperopt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit_curr\results_curr\DT\75Hz_3classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B180A2-9756-4984-B753-4BFABB0C7204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46CF14-57B8-426C-93A8-4409CD2F5C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,6 +183,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -543,7 +546,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
